--- a/PostTable.xlsx
+++ b/PostTable.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{1E4CFE56-3920-48E8-8A1C-52AE31F19C7A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Byron\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07A8D5-830B-4F84-81FF-7BCE3E11D3C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,20 +74,20 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>Pointer</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,24 +530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -591,39 +596,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
